--- a/artfynd/A 26902-2024 artfynd.xlsx
+++ b/artfynd/A 26902-2024 artfynd.xlsx
@@ -788,7 +788,7 @@
         <v>130958995</v>
       </c>
       <c r="B3" t="n">
-        <v>87272</v>
+        <v>87276</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>130958994</v>
       </c>
       <c r="B4" t="n">
-        <v>87272</v>
+        <v>87276</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/artfynd/A 26902-2024 artfynd.xlsx
+++ b/artfynd/A 26902-2024 artfynd.xlsx
@@ -788,7 +788,7 @@
         <v>130958995</v>
       </c>
       <c r="B3" t="n">
-        <v>87276</v>
+        <v>87277</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>130958994</v>
       </c>
       <c r="B4" t="n">
-        <v>87276</v>
+        <v>87277</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/artfynd/A 26902-2024 artfynd.xlsx
+++ b/artfynd/A 26902-2024 artfynd.xlsx
@@ -788,7 +788,7 @@
         <v>130958995</v>
       </c>
       <c r="B3" t="n">
-        <v>87277</v>
+        <v>87278</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>130958994</v>
       </c>
       <c r="B4" t="n">
-        <v>87277</v>
+        <v>87278</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/artfynd/A 26902-2024 artfynd.xlsx
+++ b/artfynd/A 26902-2024 artfynd.xlsx
@@ -788,7 +788,7 @@
         <v>130958995</v>
       </c>
       <c r="B3" t="n">
-        <v>87278</v>
+        <v>87281</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>130958994</v>
       </c>
       <c r="B4" t="n">
-        <v>87278</v>
+        <v>87281</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
